--- a/merchex/Excels/Bordeaux_Export_Planning.xlsx
+++ b/merchex/Excels/Bordeaux_Export_Planning.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="359">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="362">
   <x:si>
     <x:t>Poule</x:t>
   </x:si>
@@ -1077,9 +1077,15 @@
     <x:t>20/03/2025</x:t>
   </x:si>
   <x:si>
+    <x:t>14:30</x:t>
+  </x:si>
+  <x:si>
     <x:t>24/03/2025</x:t>
   </x:si>
   <x:si>
+    <x:t>17:45</x:t>
+  </x:si>
+  <x:si>
     <x:t>25/03/2025</x:t>
   </x:si>
   <x:si>
@@ -1090,6 +1096,9 @@
   </x:si>
   <x:si>
     <x:t>31/03/2025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/04/2025</x:t>
   </x:si>
   <x:si>
     <x:t>03/04/2025</x:t>
@@ -1469,7 +1478,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H839"/>
+  <x:dimension ref="A1:H832"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -14341,7 +14350,7 @@
     </x:row>
     <x:row r="617" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A617" s="1" t="s">
-        <x:v>290</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="B617" s="1" t="s">
         <x:v>342</x:v>
@@ -14350,33 +14359,33 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D617" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E617" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="F617" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="618" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A618" s="1" t="s">
-        <x:v>317</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="B618" s="1" t="s">
-        <x:v>342</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="C618" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D618" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E618" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F618" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="619" spans="1:8" customFormat="1" ht="15" customHeight="1">
@@ -14390,10 +14399,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D619" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="E619" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F619" s="1" t="s">
         <x:v>30</x:v>
@@ -14401,22 +14410,22 @@
     </x:row>
     <x:row r="620" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A620" s="1" t="s">
-        <x:v>264</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="B620" s="1" t="s">
         <x:v>343</x:v>
       </x:c>
       <x:c r="C620" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D620" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E620" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="F620" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="621" spans="1:8" customFormat="1" ht="15" customHeight="1">
@@ -14430,33 +14439,33 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D621" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="E621" s="1" t="s">
-        <x:v>305</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="F621" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="622" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A622" s="1" t="s">
-        <x:v>297</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="B622" s="1" t="s">
-        <x:v>343</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="C622" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="D622" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E622" s="1" t="s">
-        <x:v>300</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="F622" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="623" spans="1:8" customFormat="1" ht="15" customHeight="1">
@@ -14470,10 +14479,10 @@
         <x:v>208</x:v>
       </x:c>
       <x:c r="D623" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="E623" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="F623" s="1" t="s">
         <x:v>22</x:v>
@@ -14481,7 +14490,7 @@
     </x:row>
     <x:row r="624" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A624" s="1" t="s">
-        <x:v>314</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="B624" s="1" t="s">
         <x:v>344</x:v>
@@ -14490,10 +14499,10 @@
         <x:v>208</x:v>
       </x:c>
       <x:c r="D624" s="1" t="s">
-        <x:v>261</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E624" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="F624" s="1" t="s">
         <x:v>22</x:v>
@@ -14501,27 +14510,27 @@
     </x:row>
     <x:row r="625" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A625" s="1" t="s">
-        <x:v>252</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="B625" s="1" t="s">
         <x:v>344</x:v>
       </x:c>
       <x:c r="C625" s="1" t="s">
-        <x:v>208</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D625" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="E625" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F625" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="626" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A626" s="1" t="s">
-        <x:v>262</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B626" s="1" t="s">
         <x:v>344</x:v>
@@ -14530,13 +14539,13 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="D626" s="1" t="s">
-        <x:v>202</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E626" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="F626" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="627" spans="1:8" customFormat="1" ht="15" customHeight="1">
@@ -14550,10 +14559,10 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="D627" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E627" s="1" t="s">
-        <x:v>194</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="F627" s="1" t="s">
         <x:v>22</x:v>
@@ -14561,47 +14570,47 @@
     </x:row>
     <x:row r="628" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A628" s="1" t="s">
-        <x:v>306</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="B628" s="1" t="s">
         <x:v>344</x:v>
       </x:c>
       <x:c r="C628" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D628" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="E628" s="1" t="s">
-        <x:v>307</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F628" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="629" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A629" s="1" t="s">
-        <x:v>306</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="B629" s="1" t="s">
         <x:v>344</x:v>
       </x:c>
       <x:c r="C629" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D629" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E629" s="1" t="s">
-        <x:v>308</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F629" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="630" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A630" s="1" t="s">
-        <x:v>286</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="B630" s="1" t="s">
         <x:v>344</x:v>
@@ -14610,10 +14619,10 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="D630" s="1" t="s">
-        <x:v>194</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="E630" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F630" s="1" t="s">
         <x:v>30</x:v>
@@ -14621,99 +14630,99 @@
     </x:row>
     <x:row r="631" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A631" s="1" t="s">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B631" s="1" t="s">
         <x:v>344</x:v>
       </x:c>
       <x:c r="C631" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="D631" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E631" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F631" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="632" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A632" s="1" t="s">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B632" s="1" t="s">
         <x:v>344</x:v>
       </x:c>
       <x:c r="C632" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="D632" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E632" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F632" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="633" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A633" s="1" t="s">
-        <x:v>312</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="B633" s="1" t="s">
         <x:v>344</x:v>
       </x:c>
       <x:c r="C633" s="1" t="s">
-        <x:v>313</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D633" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="E633" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="F633" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="634" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A634" s="1" t="s">
-        <x:v>262</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="B634" s="1" t="s">
         <x:v>344</x:v>
       </x:c>
       <x:c r="C634" s="1" t="s">
-        <x:v>313</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D634" s="1" t="s">
-        <x:v>194</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E634" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="F634" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="635" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A635" s="1" t="s">
-        <x:v>312</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B635" s="1" t="s">
         <x:v>344</x:v>
       </x:c>
       <x:c r="C635" s="1" t="s">
-        <x:v>313</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D635" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E635" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="F635" s="1" t="s">
         <x:v>22</x:v>
@@ -14721,7 +14730,7 @@
     </x:row>
     <x:row r="636" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A636" s="1" t="s">
-        <x:v>318</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="B636" s="1" t="s">
         <x:v>344</x:v>
@@ -14730,10 +14739,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D636" s="1" t="s">
-        <x:v>183</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="E636" s="1" t="s">
-        <x:v>319</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F636" s="1" t="s">
         <x:v>30</x:v>
@@ -14741,7 +14750,7 @@
     </x:row>
     <x:row r="637" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A637" s="1" t="s">
-        <x:v>318</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="B637" s="1" t="s">
         <x:v>344</x:v>
@@ -14750,13 +14759,13 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D637" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E637" s="1" t="s">
-        <x:v>320</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F637" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="638" spans="1:8" customFormat="1" ht="15" customHeight="1">
@@ -14770,10 +14779,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D638" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E638" s="1" t="s">
-        <x:v>194</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="F638" s="1" t="s">
         <x:v>22</x:v>
@@ -14781,167 +14790,170 @@
     </x:row>
     <x:row r="639" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A639" s="1" t="s">
-        <x:v>264</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B639" s="1" t="s">
-        <x:v>344</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="C639" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D639" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E639" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="F639" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="640" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A640" s="1" t="s">
-        <x:v>297</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B640" s="1" t="s">
-        <x:v>344</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="C640" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D640" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E640" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F640" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="641" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A641" s="1" t="s">
-        <x:v>285</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B641" s="1" t="s">
-        <x:v>344</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="C641" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D641" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="E641" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F641" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="642" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A642" s="1" t="s">
-        <x:v>260</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B642" s="1" t="s">
         <x:v>345</x:v>
       </x:c>
       <x:c r="C642" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D642" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E642" s="1" t="s">
-        <x:v>261</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F642" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="643" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A643" s="1" t="s">
-        <x:v>260</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="B643" s="1" t="s">
         <x:v>345</x:v>
       </x:c>
       <x:c r="C643" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D643" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="E643" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F643" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="644" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A644" s="1" t="s">
-        <x:v>260</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="B644" s="1" t="s">
         <x:v>345</x:v>
       </x:c>
       <x:c r="C644" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D644" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E644" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="F644" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="645" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A645" s="1" t="s">
-        <x:v>269</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B645" s="1" t="s">
         <x:v>345</x:v>
       </x:c>
       <x:c r="C645" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D645" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E645" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F645" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="646" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A646" s="1" t="s">
-        <x:v>269</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="B646" s="1" t="s">
         <x:v>345</x:v>
       </x:c>
       <x:c r="C646" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D646" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E646" s="1" t="s">
-        <x:v>302</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="F646" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="G646" s="1" t="s">
+        <x:v>185</x:v>
       </x:c>
     </x:row>
     <x:row r="647" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A647" s="1" t="s">
-        <x:v>256</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="B647" s="1" t="s">
         <x:v>345</x:v>
@@ -14950,18 +14962,21 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D647" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E647" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="F647" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="G647" s="1" t="s">
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="648" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A648" s="1" t="s">
-        <x:v>317</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="B648" s="1" t="s">
         <x:v>345</x:v>
@@ -14970,18 +14985,21 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D648" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="E648" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F648" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="G648" s="1" t="s">
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="649" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A649" s="1" t="s">
-        <x:v>275</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B649" s="1" t="s">
         <x:v>345</x:v>
@@ -14990,58 +15008,58 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D649" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E649" s="1" t="s">
-        <x:v>205</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="F649" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="650" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A650" s="1" t="s">
-        <x:v>310</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B650" s="1" t="s">
-        <x:v>345</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="C650" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D650" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="E650" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="F650" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="651" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A651" s="1" t="s">
-        <x:v>256</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B651" s="1" t="s">
-        <x:v>345</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="C651" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D651" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="E651" s="1" t="s">
-        <x:v>202</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F651" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="652" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A652" s="1" t="s">
-        <x:v>325</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B652" s="1" t="s">
         <x:v>346</x:v>
@@ -15050,10 +15068,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D652" s="1" t="s">
-        <x:v>188</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="E652" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="F652" s="1" t="s">
         <x:v>30</x:v>
@@ -15061,7 +15079,7 @@
     </x:row>
     <x:row r="653" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A653" s="1" t="s">
-        <x:v>294</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B653" s="1" t="s">
         <x:v>346</x:v>
@@ -15070,10 +15088,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D653" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="E653" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="F653" s="1" t="s">
         <x:v>30</x:v>
@@ -15081,7 +15099,7 @@
     </x:row>
     <x:row r="654" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A654" s="1" t="s">
-        <x:v>326</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B654" s="1" t="s">
         <x:v>346</x:v>
@@ -15090,10 +15108,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D654" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="E654" s="1" t="s">
-        <x:v>139</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="F654" s="1" t="s">
         <x:v>30</x:v>
@@ -15101,7 +15119,7 @@
     </x:row>
     <x:row r="655" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A655" s="1" t="s">
-        <x:v>323</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B655" s="1" t="s">
         <x:v>346</x:v>
@@ -15110,10 +15128,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D655" s="1" t="s">
-        <x:v>196</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E655" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F655" s="1" t="s">
         <x:v>30</x:v>
@@ -15121,7 +15139,7 @@
     </x:row>
     <x:row r="656" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A656" s="1" t="s">
-        <x:v>295</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B656" s="1" t="s">
         <x:v>346</x:v>
@@ -15130,10 +15148,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D656" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="E656" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F656" s="1" t="s">
         <x:v>30</x:v>
@@ -15141,7 +15159,7 @@
     </x:row>
     <x:row r="657" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A657" s="1" t="s">
-        <x:v>296</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B657" s="1" t="s">
         <x:v>346</x:v>
@@ -15150,10 +15168,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D657" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="E657" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="F657" s="1" t="s">
         <x:v>30</x:v>
@@ -15161,7 +15179,7 @@
     </x:row>
     <x:row r="658" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A658" s="1" t="s">
-        <x:v>292</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B658" s="1" t="s">
         <x:v>346</x:v>
@@ -15170,10 +15188,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D658" s="1" t="s">
-        <x:v>197</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="E658" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="F658" s="1" t="s">
         <x:v>30</x:v>
@@ -15181,7 +15199,7 @@
     </x:row>
     <x:row r="659" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A659" s="1" t="s">
-        <x:v>326</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B659" s="1" t="s">
         <x:v>346</x:v>
@@ -15190,10 +15208,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D659" s="1" t="s">
-        <x:v>198</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="E659" s="1" t="s">
-        <x:v>189</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F659" s="1" t="s">
         <x:v>30</x:v>
@@ -15201,7 +15219,7 @@
     </x:row>
     <x:row r="660" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A660" s="1" t="s">
-        <x:v>323</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B660" s="1" t="s">
         <x:v>346</x:v>
@@ -15210,10 +15228,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D660" s="1" t="s">
-        <x:v>138</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E660" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="F660" s="1" t="s">
         <x:v>30</x:v>
@@ -15221,7 +15239,7 @@
     </x:row>
     <x:row r="661" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A661" s="1" t="s">
-        <x:v>296</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B661" s="1" t="s">
         <x:v>346</x:v>
@@ -15230,10 +15248,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D661" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="E661" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F661" s="1" t="s">
         <x:v>30</x:v>
@@ -15241,7 +15259,7 @@
     </x:row>
     <x:row r="662" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A662" s="1" t="s">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B662" s="1" t="s">
         <x:v>346</x:v>
@@ -15250,10 +15268,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D662" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E662" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F662" s="1" t="s">
         <x:v>30</x:v>
@@ -15261,7 +15279,7 @@
     </x:row>
     <x:row r="663" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A663" s="1" t="s">
-        <x:v>292</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B663" s="1" t="s">
         <x:v>346</x:v>
@@ -15270,10 +15288,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D663" s="1" t="s">
-        <x:v>223</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E663" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="F663" s="1" t="s">
         <x:v>30</x:v>
@@ -15281,67 +15299,73 @@
     </x:row>
     <x:row r="664" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A664" s="1" t="s">
-        <x:v>295</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B664" s="1" t="s">
         <x:v>346</x:v>
       </x:c>
       <x:c r="C664" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D664" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="E664" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F664" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="665" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A665" s="1" t="s">
-        <x:v>325</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="B665" s="1" t="s">
         <x:v>346</x:v>
       </x:c>
       <x:c r="C665" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D665" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E665" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="F665" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="G665" s="1" t="s">
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="666" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A666" s="1" t="s">
-        <x:v>291</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="B666" s="1" t="s">
         <x:v>346</x:v>
       </x:c>
       <x:c r="C666" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D666" s="1" t="s">
-        <x:v>194</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E666" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="F666" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G666" s="1" t="s">
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="667" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A667" s="1" t="s">
-        <x:v>317</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B667" s="1" t="s">
         <x:v>346</x:v>
@@ -15350,58 +15374,61 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D667" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E667" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="F667" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="668" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A668" s="1" t="s">
-        <x:v>288</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="B668" s="1" t="s">
-        <x:v>346</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="C668" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D668" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="E668" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="F668" s="1" t="s">
         <x:v>38</x:v>
       </x:c>
+      <x:c r="G668" s="1" t="s">
+        <x:v>78</x:v>
+      </x:c>
     </x:row>
     <x:row r="669" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A669" s="1" t="s">
-        <x:v>256</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B669" s="1" t="s">
-        <x:v>346</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="C669" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D669" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E669" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="F669" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="670" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A670" s="1" t="s">
-        <x:v>266</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B670" s="1" t="s">
         <x:v>347</x:v>
@@ -15410,233 +15437,239 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D670" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E670" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F670" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="671" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A671" s="1" t="s">
-        <x:v>280</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="B671" s="1" t="s">
         <x:v>347</x:v>
       </x:c>
       <x:c r="C671" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D671" s="1" t="s">
-        <x:v>282</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="E671" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F671" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="672" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A672" s="1" t="s">
-        <x:v>280</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B672" s="1" t="s">
         <x:v>347</x:v>
       </x:c>
       <x:c r="C672" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D672" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E672" s="1" t="s">
-        <x:v>281</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="F672" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="673" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A673" s="1" t="s">
-        <x:v>280</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B673" s="1" t="s">
-        <x:v>347</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="C673" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="D673" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="E673" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F673" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="674" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A674" s="1" t="s">
-        <x:v>277</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B674" s="1" t="s">
-        <x:v>347</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="C674" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="D674" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E674" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F674" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="675" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A675" s="1" t="s">
-        <x:v>290</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="B675" s="1" t="s">
-        <x:v>347</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="C675" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D675" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E675" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="F675" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="G675" s="1" t="s">
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="676" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A676" s="1" t="s">
-        <x:v>291</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="B676" s="1" t="s">
-        <x:v>347</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="C676" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D676" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="E676" s="1" t="s">
-        <x:v>263</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="F676" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="677" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A677" s="1" t="s">
-        <x:v>330</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="B677" s="1" t="s">
         <x:v>348</x:v>
       </x:c>
       <x:c r="C677" s="1" t="s">
-        <x:v>208</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D677" s="1" t="s">
-        <x:v>320</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E677" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F677" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="G677" s="1" t="s">
+        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="678" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A678" s="1" t="s">
-        <x:v>328</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="B678" s="1" t="s">
         <x:v>348</x:v>
       </x:c>
       <x:c r="C678" s="1" t="s">
-        <x:v>208</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D678" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E678" s="1" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="F678" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="679" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A679" s="1" t="s">
-        <x:v>309</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B679" s="1" t="s">
         <x:v>348</x:v>
       </x:c>
       <x:c r="C679" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D679" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="E679" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F679" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="680" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A680" s="1" t="s">
-        <x:v>321</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B680" s="1" t="s">
         <x:v>348</x:v>
       </x:c>
       <x:c r="C680" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D680" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E680" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="F680" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="681" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A681" s="1" t="s">
-        <x:v>264</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B681" s="1" t="s">
         <x:v>348</x:v>
       </x:c>
       <x:c r="C681" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D681" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="E681" s="1" t="s">
-        <x:v>194</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="F681" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="682" spans="1:8" customFormat="1" ht="15" customHeight="1">
@@ -15647,13 +15680,13 @@
         <x:v>348</x:v>
       </x:c>
       <x:c r="C682" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D682" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E682" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="F682" s="1" t="s">
         <x:v>66</x:v>
@@ -15661,619 +15694,637 @@
     </x:row>
     <x:row r="683" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A683" s="1" t="s">
-        <x:v>316</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="B683" s="1" t="s">
         <x:v>348</x:v>
       </x:c>
       <x:c r="C683" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D683" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E683" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F683" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G683" s="1" t="s">
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="684" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A684" s="1" t="s">
-        <x:v>306</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="B684" s="1" t="s">
         <x:v>348</x:v>
       </x:c>
       <x:c r="C684" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D684" s="1" t="s">
-        <x:v>307</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E684" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F684" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="685" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A685" s="1" t="s">
-        <x:v>306</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="B685" s="1" t="s">
         <x:v>348</x:v>
       </x:c>
       <x:c r="C685" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D685" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E685" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F685" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="G685" s="1" t="s">
+        <x:v>144</x:v>
       </x:c>
     </x:row>
     <x:row r="686" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A686" s="1" t="s">
-        <x:v>306</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="B686" s="1" t="s">
         <x:v>348</x:v>
       </x:c>
       <x:c r="C686" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D686" s="1" t="s">
-        <x:v>194</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="E686" s="1" t="s">
-        <x:v>308</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F686" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="687" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A687" s="1" t="s">
-        <x:v>276</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="B687" s="1" t="s">
         <x:v>348</x:v>
       </x:c>
       <x:c r="C687" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D687" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E687" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F687" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="688" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A688" s="1" t="s">
-        <x:v>309</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="B688" s="1" t="s">
         <x:v>348</x:v>
       </x:c>
       <x:c r="C688" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D688" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E688" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F688" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="689" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A689" s="1" t="s">
-        <x:v>266</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="B689" s="1" t="s">
         <x:v>348</x:v>
       </x:c>
       <x:c r="C689" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="D689" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E689" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="F689" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="690" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A690" s="1" t="s">
-        <x:v>298</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B690" s="1" t="s">
         <x:v>348</x:v>
       </x:c>
       <x:c r="C690" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="D690" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E690" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F690" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="691" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A691" s="1" t="s">
-        <x:v>275</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B691" s="1" t="s">
         <x:v>348</x:v>
       </x:c>
       <x:c r="C691" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="D691" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="E691" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="F691" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="692" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A692" s="1" t="s">
-        <x:v>318</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B692" s="1" t="s">
         <x:v>348</x:v>
       </x:c>
       <x:c r="C692" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="D692" s="1" t="s">
-        <x:v>319</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E692" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="F692" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="693" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A693" s="1" t="s">
-        <x:v>254</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="B693" s="1" t="s">
         <x:v>348</x:v>
       </x:c>
       <x:c r="C693" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D693" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E693" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F693" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="694" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A694" s="1" t="s">
-        <x:v>254</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="B694" s="1" t="s">
         <x:v>348</x:v>
       </x:c>
       <x:c r="C694" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D694" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="E694" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="F694" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="G694" s="1" t="s">
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="695" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A695" s="1" t="s">
-        <x:v>262</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="B695" s="1" t="s">
         <x:v>348</x:v>
       </x:c>
       <x:c r="C695" s="1" t="s">
-        <x:v>313</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D695" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="E695" s="1" t="s">
-        <x:v>194</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="F695" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="696" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A696" s="1" t="s">
-        <x:v>330</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="B696" s="1" t="s">
         <x:v>348</x:v>
       </x:c>
       <x:c r="C696" s="1" t="s">
-        <x:v>313</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D696" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="E696" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F696" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>181</x:v>
       </x:c>
     </x:row>
     <x:row r="697" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A697" s="1" t="s">
-        <x:v>330</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="B697" s="1" t="s">
         <x:v>348</x:v>
       </x:c>
       <x:c r="C697" s="1" t="s">
-        <x:v>313</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D697" s="1" t="s">
-        <x:v>319</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E697" s="1" t="s">
-        <x:v>320</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F697" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="G697" s="1" t="s">
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="698" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A698" s="1" t="s">
-        <x:v>330</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="B698" s="1" t="s">
         <x:v>348</x:v>
       </x:c>
       <x:c r="C698" s="1" t="s">
-        <x:v>313</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D698" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="E698" s="1" t="s">
         <x:v>121</x:v>
       </x:c>
       <x:c r="F698" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="G698" s="1" t="s">
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="699" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A699" s="1" t="s">
-        <x:v>316</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="B699" s="1" t="s">
         <x:v>348</x:v>
       </x:c>
       <x:c r="C699" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D699" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="E699" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="F699" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="700" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A700" s="1" t="s">
-        <x:v>276</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="B700" s="1" t="s">
         <x:v>348</x:v>
       </x:c>
       <x:c r="C700" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D700" s="1" t="s">
-        <x:v>160</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E700" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="F700" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="701" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A701" s="1" t="s">
-        <x:v>274</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B701" s="1" t="s">
         <x:v>348</x:v>
       </x:c>
       <x:c r="C701" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D701" s="1" t="s">
-        <x:v>177</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="E701" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="F701" s="1" t="s">
-        <x:v>162</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="702" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A702" s="1" t="s">
-        <x:v>274</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="B702" s="1" t="s">
         <x:v>348</x:v>
       </x:c>
       <x:c r="C702" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D702" s="1" t="s">
-        <x:v>166</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E702" s="1" t="s">
-        <x:v>175</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="F702" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="703" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A703" s="1" t="s">
-        <x:v>276</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B703" s="1" t="s">
         <x:v>348</x:v>
       </x:c>
       <x:c r="C703" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D703" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E703" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F703" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="704" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A704" s="1" t="s">
-        <x:v>277</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B704" s="1" t="s">
         <x:v>348</x:v>
       </x:c>
       <x:c r="C704" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D704" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E704" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F704" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="705" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A705" s="1" t="s">
-        <x:v>288</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="B705" s="1" t="s">
         <x:v>348</x:v>
       </x:c>
       <x:c r="C705" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D705" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="E705" s="1" t="s">
-        <x:v>289</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F705" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="706" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A706" s="1" t="s">
-        <x:v>310</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B706" s="1" t="s">
-        <x:v>348</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="C706" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D706" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E706" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F706" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="707" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A707" s="1" t="s">
-        <x:v>318</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B707" s="1" t="s">
-        <x:v>348</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="C707" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D707" s="1" t="s">
-        <x:v>320</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E707" s="1" t="s">
-        <x:v>289</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F707" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="708" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A708" s="1" t="s">
-        <x:v>262</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B708" s="1" t="s">
-        <x:v>348</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="C708" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D708" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E708" s="1" t="s">
-        <x:v>268</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F708" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="709" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A709" s="1" t="s">
-        <x:v>285</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="B709" s="1" t="s">
-        <x:v>348</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="C709" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="D709" s="1" t="s">
-        <x:v>194</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E709" s="1" t="s">
-        <x:v>202</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F709" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="710" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A710" s="1" t="s">
-        <x:v>303</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="B710" s="1" t="s">
-        <x:v>348</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="C710" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="D710" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="E710" s="1" t="s">
-        <x:v>263</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F710" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="G710" s="1" t="s">
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="711" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A711" s="1" t="s">
-        <x:v>285</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="B711" s="1" t="s">
-        <x:v>348</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="C711" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="D711" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E711" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="F711" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="712" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A712" s="1" t="s">
-        <x:v>285</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B712" s="1" t="s">
-        <x:v>348</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="C712" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D712" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="E712" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F712" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="713" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A713" s="1" t="s">
-        <x:v>303</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B713" s="1" t="s">
-        <x:v>348</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="C713" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D713" s="1" t="s">
-        <x:v>304</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="E713" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F713" s="1" t="s">
         <x:v>30</x:v>
@@ -16281,130 +16332,133 @@
     </x:row>
     <x:row r="714" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A714" s="1" t="s">
-        <x:v>258</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B714" s="1" t="s">
-        <x:v>349</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="C714" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D714" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="E714" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="F714" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="715" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A715" s="1" t="s">
-        <x:v>328</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B715" s="1" t="s">
-        <x:v>349</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="C715" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D715" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E715" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="F715" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="716" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A716" s="1" t="s">
-        <x:v>328</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="B716" s="1" t="s">
-        <x:v>349</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="C716" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D716" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="E716" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F716" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="G716" s="1" t="s">
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="717" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A717" s="1" t="s">
-        <x:v>275</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="B717" s="1" t="s">
-        <x:v>349</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="C717" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D717" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E717" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F717" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="718" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A718" s="1" t="s">
-        <x:v>288</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="B718" s="1" t="s">
-        <x:v>349</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="C718" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D718" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E718" s="1" t="s">
-        <x:v>289</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="F718" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="719" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A719" s="1" t="s">
-        <x:v>292</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="B719" s="1" t="s">
-        <x:v>350</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="C719" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D719" s="1" t="s">
-        <x:v>199</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="E719" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F719" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="720" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A720" s="1" t="s">
-        <x:v>294</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="B720" s="1" t="s">
-        <x:v>350</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="C720" s="1" t="s">
         <x:v>10</x:v>
@@ -16413,7 +16467,7 @@
         <x:v>194</x:v>
       </x:c>
       <x:c r="E720" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="F720" s="1" t="s">
         <x:v>30</x:v>
@@ -16421,182 +16475,179 @@
     </x:row>
     <x:row r="721" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A721" s="1" t="s">
-        <x:v>292</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="B721" s="1" t="s">
-        <x:v>350</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="C721" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D721" s="1" t="s">
-        <x:v>197</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E721" s="1" t="s">
-        <x:v>223</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F721" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="722" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A722" s="1" t="s">
-        <x:v>294</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="B722" s="1" t="s">
-        <x:v>350</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="C722" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D722" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E722" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F722" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="723" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A723" s="1" t="s">
-        <x:v>264</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="B723" s="1" t="s">
-        <x:v>351</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="C723" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="D723" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E723" s="1" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="F723" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="724" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A724" s="1" t="s">
-        <x:v>264</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B724" s="1" t="s">
-        <x:v>351</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="C724" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="D724" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E724" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="F724" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="725" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A725" s="1" t="s">
-        <x:v>298</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="B725" s="1" t="s">
-        <x:v>351</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="C725" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D725" s="1" t="s">
-        <x:v>214</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E725" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F725" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="726" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A726" s="1" t="s">
-        <x:v>264</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="B726" s="1" t="s">
-        <x:v>351</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="C726" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D726" s="1" t="s">
-        <x:v>194</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E726" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F726" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="727" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A727" s="1" t="s">
-        <x:v>267</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B727" s="1" t="s">
-        <x:v>351</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="C727" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D727" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E727" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F727" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="728" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A728" s="1" t="s">
-        <x:v>297</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="B728" s="1" t="s">
-        <x:v>351</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="C728" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D728" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E728" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F728" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="729" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A729" s="1" t="s">
-        <x:v>297</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="B729" s="1" t="s">
-        <x:v>351</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="C729" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D729" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="E729" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F729" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="730" spans="1:8" customFormat="1" ht="15" customHeight="1">
@@ -16607,13 +16658,13 @@
         <x:v>352</x:v>
       </x:c>
       <x:c r="C730" s="1" t="s">
-        <x:v>208</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D730" s="1" t="s">
-        <x:v>202</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="E730" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F730" s="1" t="s">
         <x:v>26</x:v>
@@ -16621,22 +16672,22 @@
     </x:row>
     <x:row r="731" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A731" s="1" t="s">
-        <x:v>286</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="B731" s="1" t="s">
         <x:v>352</x:v>
       </x:c>
       <x:c r="C731" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D731" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E731" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="F731" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="732" spans="1:8" customFormat="1" ht="15" customHeight="1">
@@ -16647,13 +16698,13 @@
         <x:v>352</x:v>
       </x:c>
       <x:c r="C732" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D732" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E732" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="F732" s="1" t="s">
         <x:v>66</x:v>
@@ -16661,119 +16712,125 @@
     </x:row>
     <x:row r="733" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A733" s="1" t="s">
-        <x:v>309</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B733" s="1" t="s">
         <x:v>352</x:v>
       </x:c>
       <x:c r="C733" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D733" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="E733" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="F733" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="734" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A734" s="1" t="s">
-        <x:v>286</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="B734" s="1" t="s">
         <x:v>352</x:v>
       </x:c>
       <x:c r="C734" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D734" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E734" s="1" t="s">
-        <x:v>194</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F734" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G734" s="1" t="s">
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="735" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A735" s="1" t="s">
-        <x:v>328</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="B735" s="1" t="s">
         <x:v>352</x:v>
       </x:c>
       <x:c r="C735" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D735" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E735" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="F735" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="G735" s="1" t="s">
+        <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="736" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A736" s="1" t="s">
-        <x:v>272</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B736" s="1" t="s">
         <x:v>352</x:v>
       </x:c>
       <x:c r="C736" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="D736" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E736" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="F736" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="737" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A737" s="1" t="s">
-        <x:v>272</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="B737" s="1" t="s">
         <x:v>352</x:v>
       </x:c>
       <x:c r="C737" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="D737" s="1" t="s">
-        <x:v>178</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="E737" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F737" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="738" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A738" s="1" t="s">
-        <x:v>314</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B738" s="1" t="s">
         <x:v>352</x:v>
       </x:c>
       <x:c r="C738" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="D738" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E738" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="F738" s="1" t="s">
         <x:v>22</x:v>
@@ -16781,459 +16838,459 @@
     </x:row>
     <x:row r="739" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A739" s="1" t="s">
-        <x:v>262</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="B739" s="1" t="s">
         <x:v>352</x:v>
       </x:c>
       <x:c r="C739" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D739" s="1" t="s">
-        <x:v>268</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E739" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F739" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="740" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A740" s="1" t="s">
-        <x:v>314</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="B740" s="1" t="s">
         <x:v>352</x:v>
       </x:c>
       <x:c r="C740" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D740" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E740" s="1" t="s">
-        <x:v>315</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="F740" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>181</x:v>
       </x:c>
     </x:row>
     <x:row r="741" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A741" s="1" t="s">
-        <x:v>309</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="B741" s="1" t="s">
         <x:v>352</x:v>
       </x:c>
       <x:c r="C741" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D741" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="E741" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F741" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>167</x:v>
       </x:c>
     </x:row>
     <x:row r="742" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A742" s="1" t="s">
-        <x:v>279</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="B742" s="1" t="s">
         <x:v>352</x:v>
       </x:c>
       <x:c r="C742" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D742" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="E742" s="1" t="s">
-        <x:v>183</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="F742" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="743" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A743" s="1" t="s">
-        <x:v>276</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="B743" s="1" t="s">
         <x:v>352</x:v>
       </x:c>
       <x:c r="C743" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D743" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E743" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F743" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="744" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A744" s="1" t="s">
-        <x:v>330</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="B744" s="1" t="s">
         <x:v>352</x:v>
       </x:c>
       <x:c r="C744" s="1" t="s">
-        <x:v>313</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D744" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E744" s="1" t="s">
-        <x:v>319</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F744" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="745" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A745" s="1" t="s">
-        <x:v>330</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="B745" s="1" t="s">
         <x:v>352</x:v>
       </x:c>
       <x:c r="C745" s="1" t="s">
-        <x:v>313</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D745" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="E745" s="1" t="s">
-        <x:v>320</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="F745" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="746" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A746" s="1" t="s">
-        <x:v>276</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="B746" s="1" t="s">
         <x:v>352</x:v>
       </x:c>
       <x:c r="C746" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D746" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="E746" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F746" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="747" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A747" s="1" t="s">
-        <x:v>316</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B747" s="1" t="s">
         <x:v>352</x:v>
       </x:c>
       <x:c r="C747" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D747" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E747" s="1" t="s">
-        <x:v>165</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F747" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="748" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A748" s="1" t="s">
-        <x:v>276</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B748" s="1" t="s">
         <x:v>352</x:v>
       </x:c>
       <x:c r="C748" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D748" s="1" t="s">
-        <x:v>160</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E748" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="F748" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="749" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A749" s="1" t="s">
-        <x:v>316</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="B749" s="1" t="s">
         <x:v>352</x:v>
       </x:c>
       <x:c r="C749" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D749" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="E749" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="F749" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="750" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A750" s="1" t="s">
-        <x:v>298</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B750" s="1" t="s">
         <x:v>352</x:v>
       </x:c>
       <x:c r="C750" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D750" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="E750" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F750" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="751" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A751" s="1" t="s">
-        <x:v>267</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="B751" s="1" t="s">
-        <x:v>352</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="C751" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="D751" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="E751" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F751" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="752" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A752" s="1" t="s">
-        <x:v>318</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B752" s="1" t="s">
-        <x:v>352</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="C752" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D752" s="1" t="s">
-        <x:v>289</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="E752" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="F752" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="753" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A753" s="1" t="s">
-        <x:v>260</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B753" s="1" t="s">
-        <x:v>352</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="C753" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D753" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E753" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="F753" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="754" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A754" s="1" t="s">
-        <x:v>330</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="B754" s="1" t="s">
-        <x:v>352</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="C754" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D754" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="E754" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="F754" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="755" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A755" s="1" t="s">
-        <x:v>297</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="B755" s="1" t="s">
-        <x:v>352</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="C755" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D755" s="1" t="s">
-        <x:v>305</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="E755" s="1" t="s">
-        <x:v>300</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F755" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="756" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A756" s="1" t="s">
-        <x:v>258</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B756" s="1" t="s">
-        <x:v>352</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="C756" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D756" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="E756" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F756" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="757" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A757" s="1" t="s">
-        <x:v>285</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="B757" s="1" t="s">
-        <x:v>353</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="C757" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D757" s="1" t="s">
-        <x:v>202</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E757" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="F757" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="758" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A758" s="1" t="s">
-        <x:v>285</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="B758" s="1" t="s">
-        <x:v>353</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="C758" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D758" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E758" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F758" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="759" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A759" s="1" t="s">
-        <x:v>285</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B759" s="1" t="s">
-        <x:v>353</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="C759" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D759" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="E759" s="1" t="s">
-        <x:v>194</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F759" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="760" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A760" s="1" t="s">
-        <x:v>269</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="B760" s="1" t="s">
-        <x:v>353</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="C760" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D760" s="1" t="s">
-        <x:v>302</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E760" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F760" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="761" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A761" s="1" t="s">
-        <x:v>269</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B761" s="1" t="s">
-        <x:v>353</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="C761" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D761" s="1" t="s">
-        <x:v>271</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E761" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="F761" s="1" t="s">
         <x:v>30</x:v>
@@ -17241,119 +17298,119 @@
     </x:row>
     <x:row r="762" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A762" s="1" t="s">
-        <x:v>317</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B762" s="1" t="s">
-        <x:v>353</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="C762" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D762" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="E762" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="F762" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="763" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A763" s="1" t="s">
-        <x:v>275</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B763" s="1" t="s">
-        <x:v>353</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="C763" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D763" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="E763" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="F763" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="764" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A764" s="1" t="s">
-        <x:v>256</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B764" s="1" t="s">
-        <x:v>353</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="C764" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D764" s="1" t="s">
-        <x:v>202</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="E764" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="F764" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="765" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A765" s="1" t="s">
-        <x:v>310</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B765" s="1" t="s">
-        <x:v>353</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="C765" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D765" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E765" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="F765" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="766" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A766" s="1" t="s">
-        <x:v>256</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B766" s="1" t="s">
-        <x:v>353</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="C766" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D766" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="E766" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="F766" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="767" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A767" s="1" t="s">
-        <x:v>292</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B767" s="1" t="s">
-        <x:v>354</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="C767" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D767" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E767" s="1" t="s">
-        <x:v>197</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F767" s="1" t="s">
         <x:v>30</x:v>
@@ -17361,19 +17418,19 @@
     </x:row>
     <x:row r="768" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A768" s="1" t="s">
-        <x:v>323</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B768" s="1" t="s">
-        <x:v>354</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="C768" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D768" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="E768" s="1" t="s">
-        <x:v>138</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F768" s="1" t="s">
         <x:v>30</x:v>
@@ -17381,19 +17438,19 @@
     </x:row>
     <x:row r="769" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A769" s="1" t="s">
-        <x:v>325</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B769" s="1" t="s">
-        <x:v>354</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="C769" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D769" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E769" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="F769" s="1" t="s">
         <x:v>30</x:v>
@@ -17401,19 +17458,19 @@
     </x:row>
     <x:row r="770" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A770" s="1" t="s">
-        <x:v>326</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B770" s="1" t="s">
-        <x:v>354</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="C770" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D770" s="1" t="s">
-        <x:v>139</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E770" s="1" t="s">
-        <x:v>198</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F770" s="1" t="s">
         <x:v>30</x:v>
@@ -17421,19 +17478,19 @@
     </x:row>
     <x:row r="771" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A771" s="1" t="s">
-        <x:v>296</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B771" s="1" t="s">
-        <x:v>354</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="C771" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D771" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="E771" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="F771" s="1" t="s">
         <x:v>30</x:v>
@@ -17441,19 +17498,19 @@
     </x:row>
     <x:row r="772" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A772" s="1" t="s">
-        <x:v>294</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B772" s="1" t="s">
-        <x:v>354</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="C772" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D772" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E772" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="F772" s="1" t="s">
         <x:v>30</x:v>
@@ -17461,19 +17518,19 @@
     </x:row>
     <x:row r="773" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A773" s="1" t="s">
-        <x:v>296</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B773" s="1" t="s">
-        <x:v>354</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="C773" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D773" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="E773" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="F773" s="1" t="s">
         <x:v>30</x:v>
@@ -17481,119 +17538,119 @@
     </x:row>
     <x:row r="774" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A774" s="1" t="s">
-        <x:v>294</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B774" s="1" t="s">
-        <x:v>354</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="C774" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D774" s="1" t="s">
+        <x:v>263</x:v>
+      </x:c>
+      <x:c r="E774" s="1" t="s">
         <x:v>194</x:v>
       </x:c>
-      <x:c r="E774" s="1" t="s">
-        <x:v>123</x:v>
-      </x:c>
       <x:c r="F774" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="775" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A775" s="1" t="s">
-        <x:v>295</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B775" s="1" t="s">
-        <x:v>354</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="C775" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D775" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E775" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F775" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="776" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A776" s="1" t="s">
-        <x:v>295</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="B776" s="1" t="s">
-        <x:v>354</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="C776" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D776" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E776" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F776" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="777" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A777" s="1" t="s">
-        <x:v>326</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="B777" s="1" t="s">
-        <x:v>354</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="C777" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D777" s="1" t="s">
-        <x:v>189</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E777" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F777" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="778" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A778" s="1" t="s">
-        <x:v>292</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="B778" s="1" t="s">
-        <x:v>354</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="C778" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D778" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E778" s="1" t="s">
-        <x:v>199</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="F778" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="779" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A779" s="1" t="s">
-        <x:v>325</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B779" s="1" t="s">
-        <x:v>354</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="C779" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D779" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E779" s="1" t="s">
-        <x:v>188</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F779" s="1" t="s">
         <x:v>30</x:v>
@@ -17601,19 +17658,19 @@
     </x:row>
     <x:row r="780" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A780" s="1" t="s">
-        <x:v>323</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B780" s="1" t="s">
-        <x:v>354</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="C780" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D780" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E780" s="1" t="s">
-        <x:v>196</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="F780" s="1" t="s">
         <x:v>30</x:v>
@@ -17621,259 +17678,259 @@
     </x:row>
     <x:row r="781" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A781" s="1" t="s">
-        <x:v>291</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B781" s="1" t="s">
-        <x:v>354</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="C781" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D781" s="1" t="s">
-        <x:v>263</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="E781" s="1" t="s">
-        <x:v>194</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="F781" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="782" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A782" s="1" t="s">
-        <x:v>256</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="B782" s="1" t="s">
-        <x:v>354</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="C782" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D782" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E782" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="F782" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="783" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A783" s="1" t="s">
-        <x:v>288</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="B783" s="1" t="s">
-        <x:v>354</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="C783" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D783" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E783" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="F783" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="784" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A784" s="1" t="s">
-        <x:v>266</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="B784" s="1" t="s">
-        <x:v>354</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="C784" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="D784" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E784" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F784" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="785" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A785" s="1" t="s">
-        <x:v>288</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="B785" s="1" t="s">
-        <x:v>354</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="C785" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="D785" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E785" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F785" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="786" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A786" s="1" t="s">
-        <x:v>280</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="B786" s="1" t="s">
-        <x:v>355</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="C786" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D786" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="E786" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="F786" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="787" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A787" s="1" t="s">
-        <x:v>280</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="B787" s="1" t="s">
-        <x:v>355</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="C787" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="D787" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="E787" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="F787" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="788" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A788" s="1" t="s">
-        <x:v>280</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="B788" s="1" t="s">
-        <x:v>355</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="C788" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="D788" s="1" t="s">
-        <x:v>281</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E788" s="1" t="s">
-        <x:v>282</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="F788" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="789" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A789" s="1" t="s">
-        <x:v>277</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="B789" s="1" t="s">
-        <x:v>355</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="C789" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D789" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E789" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="F789" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="790" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A790" s="1" t="s">
-        <x:v>277</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="B790" s="1" t="s">
-        <x:v>355</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="C790" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D790" s="1" t="s">
         <x:v>57</x:v>
       </x:c>
       <x:c r="E790" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="F790" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="791" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A791" s="1" t="s">
-        <x:v>267</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="B791" s="1" t="s">
-        <x:v>355</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="C791" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D791" s="1" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="E791" s="1" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="E791" s="1" t="s">
-        <x:v>58</x:v>
-      </x:c>
       <x:c r="F791" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>167</x:v>
       </x:c>
     </x:row>
     <x:row r="792" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A792" s="1" t="s">
-        <x:v>267</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B792" s="1" t="s">
-        <x:v>355</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="C792" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D792" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="E792" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F792" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="793" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A793" s="1" t="s">
-        <x:v>297</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B793" s="1" t="s">
-        <x:v>355</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="C793" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D793" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E793" s="1" t="s">
-        <x:v>305</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F793" s="1" t="s">
         <x:v>26</x:v>
@@ -17881,19 +17938,19 @@
     </x:row>
     <x:row r="794" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A794" s="1" t="s">
-        <x:v>314</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B794" s="1" t="s">
-        <x:v>356</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="C794" s="1" t="s">
-        <x:v>208</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D794" s="1" t="s">
-        <x:v>315</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="E794" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="F794" s="1" t="s">
         <x:v>22</x:v>
@@ -17901,19 +17958,19 @@
     </x:row>
     <x:row r="795" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A795" s="1" t="s">
-        <x:v>314</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B795" s="1" t="s">
-        <x:v>356</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="C795" s="1" t="s">
-        <x:v>208</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D795" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E795" s="1" t="s">
-        <x:v>261</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F795" s="1" t="s">
         <x:v>22</x:v>
@@ -17921,179 +17978,179 @@
     </x:row>
     <x:row r="796" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A796" s="1" t="s">
-        <x:v>266</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B796" s="1" t="s">
-        <x:v>356</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="C796" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D796" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E796" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F796" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="797" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A797" s="1" t="s">
-        <x:v>279</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="B797" s="1" t="s">
-        <x:v>356</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="C797" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D797" s="1" t="s">
-        <x:v>183</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E797" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="F797" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="798" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A798" s="1" t="s">
-        <x:v>316</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B798" s="1" t="s">
-        <x:v>356</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="C798" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D798" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="E798" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F798" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="799" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A799" s="1" t="s">
-        <x:v>272</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="B799" s="1" t="s">
-        <x:v>356</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="C799" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D799" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E799" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F799" s="1" t="s">
-        <x:v>162</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="800" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A800" s="1" t="s">
-        <x:v>330</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="B800" s="1" t="s">
-        <x:v>356</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="C800" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D800" s="1" t="s">
-        <x:v>320</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E800" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="F800" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="801" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A801" s="1" t="s">
-        <x:v>328</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="B801" s="1" t="s">
-        <x:v>356</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="C801" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D801" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E801" s="1" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="F801" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="802" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A802" s="1" t="s">
-        <x:v>330</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="B802" s="1" t="s">
-        <x:v>356</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="C802" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D802" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E802" s="1" t="s">
-        <x:v>319</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="F802" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="803" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A803" s="1" t="s">
-        <x:v>330</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="B803" s="1" t="s">
-        <x:v>356</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="C803" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D803" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="E803" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="F803" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="804" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A804" s="1" t="s">
-        <x:v>328</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="B804" s="1" t="s">
-        <x:v>356</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="C804" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="D804" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E804" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F804" s="1" t="s">
         <x:v>26</x:v>
@@ -18101,609 +18158,478 @@
     </x:row>
     <x:row r="805" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A805" s="1" t="s">
-        <x:v>276</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B805" s="1" t="s">
-        <x:v>356</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="C805" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="D805" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E805" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F805" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="806" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A806" s="1" t="s">
-        <x:v>317</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B806" s="1" t="s">
-        <x:v>356</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="C806" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="D806" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E806" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="F806" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="807" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A807" s="1" t="s">
-        <x:v>309</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B807" s="1" t="s">
-        <x:v>356</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="C807" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="D807" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="E807" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="F807" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="808" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A808" s="1" t="s">
-        <x:v>298</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="B808" s="1" t="s">
-        <x:v>356</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="C808" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D808" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E808" s="1" t="s">
-        <x:v>214</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F808" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="G808" s="1" t="s">
+        <x:v>179</x:v>
       </x:c>
     </x:row>
     <x:row r="809" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A809" s="1" t="s">
-        <x:v>254</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="B809" s="1" t="s">
-        <x:v>356</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="C809" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D809" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="E809" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F809" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="810" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A810" s="1" t="s">
-        <x:v>254</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="B810" s="1" t="s">
-        <x:v>356</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="C810" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D810" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="E810" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="F810" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="G810" s="1" t="s">
+        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="811" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A811" s="1" t="s">
-        <x:v>303</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="B811" s="1" t="s">
-        <x:v>356</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="C811" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D811" s="1" t="s">
-        <x:v>263</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="E811" s="1" t="s">
-        <x:v>304</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="F811" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="G811" s="1" t="s">
+        <x:v>340</x:v>
       </x:c>
     </x:row>
     <x:row r="812" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A812" s="1" t="s">
-        <x:v>297</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="B812" s="1" t="s">
-        <x:v>356</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="C812" s="1" t="s">
-        <x:v>313</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D812" s="1" t="s">
-        <x:v>300</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E812" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="F812" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="813" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A813" s="1" t="s">
-        <x:v>306</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="B813" s="1" t="s">
-        <x:v>356</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="C813" s="1" t="s">
-        <x:v>313</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D813" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E813" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F813" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="814" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A814" s="1" t="s">
-        <x:v>306</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="B814" s="1" t="s">
-        <x:v>356</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="C814" s="1" t="s">
-        <x:v>313</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D814" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="E814" s="1" t="s">
-        <x:v>194</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F814" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="815" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A815" s="1" t="s">
-        <x:v>306</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="B815" s="1" t="s">
-        <x:v>356</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="C815" s="1" t="s">
-        <x:v>313</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D815" s="1" t="s">
-        <x:v>308</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E815" s="1" t="s">
-        <x:v>307</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F815" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="816" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A816" s="1" t="s">
-        <x:v>272</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="B816" s="1" t="s">
-        <x:v>356</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="C816" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D816" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="E816" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="F816" s="1" t="s">
-        <x:v>167</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="817" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A817" s="1" t="s">
-        <x:v>276</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="B817" s="1" t="s">
-        <x:v>356</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="C817" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D817" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E817" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="F817" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="818" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A818" s="1" t="s">
-        <x:v>274</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B818" s="1" t="s">
-        <x:v>356</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="C818" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D818" s="1" t="s">
-        <x:v>160</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E818" s="1" t="s">
-        <x:v>166</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F818" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="819" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A819" s="1" t="s">
-        <x:v>309</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B819" s="1" t="s">
-        <x:v>356</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="C819" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D819" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E819" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F819" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="820" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A820" s="1" t="s">
-        <x:v>274</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B820" s="1" t="s">
-        <x:v>356</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="C820" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D820" s="1" t="s">
-        <x:v>175</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="E820" s="1" t="s">
-        <x:v>177</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="F820" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="821" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A821" s="1" t="s">
-        <x:v>316</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="B821" s="1" t="s">
-        <x:v>356</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="C821" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D821" s="1" t="s">
-        <x:v>165</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="E821" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F821" s="1" t="s">
-        <x:v>162</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="822" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A822" s="1" t="s">
-        <x:v>276</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="B822" s="1" t="s">
-        <x:v>356</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="C822" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D822" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E822" s="1" t="s">
-        <x:v>160</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F822" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="823" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A823" s="1" t="s">
-        <x:v>309</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="B823" s="1" t="s">
-        <x:v>356</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="C823" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D823" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E823" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="F823" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="824" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A824" s="1" t="s">
-        <x:v>310</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="B824" s="1" t="s">
-        <x:v>356</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="C824" s="1" t="s">
         <x:v>51</x:v>
       </x:c>
       <x:c r="D824" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E824" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F824" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="825" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A825" s="1" t="s">
-        <x:v>298</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="B825" s="1" t="s">
-        <x:v>356</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="C825" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D825" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E825" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F825" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>181</x:v>
       </x:c>
     </x:row>
     <x:row r="826" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A826" s="1" t="s">
-        <x:v>318</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="B826" s="1" t="s">
-        <x:v>356</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="C826" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D826" s="1" t="s">
-        <x:v>289</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="E826" s="1" t="s">
-        <x:v>319</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F826" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="827" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A827" s="1" t="s">
-        <x:v>318</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="B827" s="1" t="s">
-        <x:v>356</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="C827" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="D827" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E827" s="1" t="s">
-        <x:v>183</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F827" s="1" t="s">
-        <x:v>30</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="828" spans="1:8" customFormat="1" ht="15" customHeight="1">
-      <x:c r="A828" s="1" t="s">
-        <x:v>260</x:v>
-      </x:c>
-      <x:c r="B828" s="1" t="s">
-        <x:v>356</x:v>
-      </x:c>
-      <x:c r="C828" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="D828" s="1" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E828" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F828" s="1" t="s">
-        <x:v>22</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="829" spans="1:8" customFormat="1" ht="15" customHeight="1">
-      <x:c r="A829" s="1" t="s">
-        <x:v>260</x:v>
-      </x:c>
-      <x:c r="B829" s="1" t="s">
-        <x:v>356</x:v>
-      </x:c>
-      <x:c r="C829" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="D829" s="1" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="E829" s="1" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="F829" s="1" t="s">
-        <x:v>22</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="830" spans="1:8" customFormat="1" ht="15" customHeight="1">
-      <x:c r="A830" s="1" t="s">
-        <x:v>260</x:v>
-      </x:c>
-      <x:c r="B830" s="1" t="s">
-        <x:v>356</x:v>
-      </x:c>
-      <x:c r="C830" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="D830" s="1" t="s">
-        <x:v>261</x:v>
-      </x:c>
-      <x:c r="E830" s="1" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="F830" s="1" t="s">
-        <x:v>22</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="831" spans="1:8" customFormat="1" ht="15" customHeight="1">
-      <x:c r="A831" s="1" t="s">
-        <x:v>297</x:v>
-      </x:c>
-      <x:c r="B831" s="1" t="s">
-        <x:v>356</x:v>
-      </x:c>
-      <x:c r="C831" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="D831" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="E831" s="1" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="F831" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
     </x:row>
-    <x:row r="832" spans="1:8" customFormat="1" ht="15" customHeight="1">
-      <x:c r="A832" s="1" t="s">
-        <x:v>303</x:v>
-      </x:c>
-      <x:c r="B832" s="1" t="s">
-        <x:v>356</x:v>
-      </x:c>
-      <x:c r="C832" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="D832" s="1" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="E832" s="1" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="F832" s="1" t="s">
-        <x:v>30</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="833" spans="1:8" customFormat="1" ht="15" customHeight="1">
-      <x:c r="A833" s="1" t="s">
-        <x:v>262</x:v>
-      </x:c>
-      <x:c r="B833" s="1" t="s">
-        <x:v>357</x:v>
-      </x:c>
-      <x:c r="C833" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="D833" s="1" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="E833" s="1" t="s">
-        <x:v>194</x:v>
-      </x:c>
-      <x:c r="F833" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="834" spans="1:8" customFormat="1" ht="15" customHeight="1">
-      <x:c r="A834" s="1" t="s">
-        <x:v>262</x:v>
-      </x:c>
-      <x:c r="B834" s="1" t="s">
-        <x:v>358</x:v>
-      </x:c>
-      <x:c r="C834" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="D834" s="1" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E834" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="F834" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="835" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="836" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="837" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="838" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="839" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="828" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="829" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="830" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="831" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="832" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
   </x:sheetData>
   <x:autoFilter ref="A1:H1"/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
